--- a/ES_REST_API명세서.xlsx
+++ b/ES_REST_API명세서.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimchanyoung/Desktop/Development/Portfolio/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD63569-F55A-2F4F-A65A-F43F0A10B844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D9E60-81C2-254E-B296-84E8EE46F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{957F9EDC-EFFD-4A42-9E8A-871A584EF18E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" xr2:uid="{957F9EDC-EFFD-4A42-9E8A-871A584EF18E}"/>
   </bookViews>
   <sheets>
     <sheet name="part 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,61 @@
   </si>
   <si>
     <t>유저 비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/check/id/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디 중복 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 이메일 중복 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/check/mail/{userMail}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/reconnect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 RefreshToken을 이용한 로그인(JWT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/password/change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userId":"test",
+    "password":"password"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 비밀번호 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,8 +278,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,26 +598,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A699A20-AD18-0342-BC3C-2494F1D78306}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="29.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="27">
+    <row r="1" spans="2:8" ht="27">
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="23" customHeight="1">
+    <row r="3" spans="2:8" ht="23" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,10 +634,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="209">
+    <row r="4" spans="2:8" ht="209">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -595,11 +656,14 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="114">
+    <row r="5" spans="2:8" ht="114">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -615,11 +679,14 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="76">
+    <row r="6" spans="2:8" ht="76">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -635,11 +702,14 @@
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="57">
+    <row r="7" spans="2:8" ht="57">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -655,35 +725,113 @@
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8" ht="19">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="76">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="6:6">
